--- a/templates/(舊報機單)轉出汎宇格式範例.xlsx
+++ b/templates/(舊報機單)轉出汎宇格式範例.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\立捷\原始碼\20180529_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A96A44-CCD0-4689-972E-8964651F9FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4200"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="報機明細" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>GIGABYTE</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
@@ -461,10 +462,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="3"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1_1" xfId="2"/>
+    <cellStyle name="一般_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规_Sheet1_1" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -747,16 +748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
     <col min="14" max="14" width="31.6640625" customWidth="1"/>
     <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
